--- a/biology/Histoire de la zoologie et de la botanique/Francisco_Moreno/Francisco_Moreno.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francisco_Moreno/Francisco_Moreno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francisco Pascacio Moreno, né à Buenos Aires le 31 mai 1852 où il est mort le 22 novembre 1919, est un naturaliste et explorateur argentin. Il est habituellement connu sous l’appellation de Perito Moreno (l’expert Moreno).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stimulé par la lecture de récits de voyages, il s'intéresse à la paléontologie et l'archéologie. En 1871 il découvre des fossiles dans la lagune de Vitel.
 En 1872, Moreno est un  des membres-créateurs de la Sociedad Científica Argentina (SCA) et projette une série d’expéditions, dans des territoires encore inexplorés, qui le rendront célèbre :
@@ -548,7 +562,9 @@
           <t>Frontière avec le Chili</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'est également rendu célèbre pour son rôle dans la défense des intérêts argentins lors de la détermination de la frontière entre le Chili et l’Argentine.
 Le traité de 1881 établissait la frontière selon la ligne de partage des eaux ; aussi sa délimitation effective était assez arbitraire. En tant qu’expert argentin (en espagnol, perito) pour ce conflit, en peu de mois Moreno précise le tracé de la frontière et présente une synthèse de ses études géographiques. En 1896, il se rend en voyage à Londres pour réclamer l’arbitrage de la reine Victoria.
@@ -580,7 +596,9 @@
           <t>Hommage de la Nation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour ses contributions à la science, Moreno est reçu docteur honoris causa de l’université nationale de Córdoba en 1887. Il est aussi chef de la commission d’exploration argentine, et il est membre de nombreuses sociétés scientifiques européennes.
 En 1902, il reçoit la Médaille du Roi Jorge IV, ainsi que des territoires en Patagonie, en hommage de la nation. En 1903, il fait don d’une partie de ces territoires pour créer le parc national Nahuel Huapi, premier parc national d’Argentine.
@@ -613,7 +631,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un glacier, une localité et un parc national portent son nom, tous trois situés en Patagonie.
 Un genre d'araignées lui a été aussi dédié.
